--- a/data/demands_1.xlsx
+++ b/data/demands_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\GitHub\steel-bridge-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15061,6 +15061,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
